--- a/data/trans_dic/P31_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P31_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata o cualquier otra actividad</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva) (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,22%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>28,67%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>26,06%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29,17%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>32,82%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,31; 42,43</t>
+          <t>10,15; 24,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,58; 33,13</t>
+          <t>16,65; 28,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,54; 35,83</t>
+          <t>21,08; 37,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,23; 34,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,24; 39,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,6; 45,7</t>
+          <t>11,03; 28,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,23; 40,93</t>
+          <t>25,95; 42,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,47; 40,87</t>
+          <t>29,01; 40,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,13; 38,31</t>
+          <t>31,91; 42,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,88; 37,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,72; 36,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,28; 36,69</t>
+          <t>21,29; 39,15</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>20,49; 31,61</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 33,73</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>28,75; 37,74</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>18,69; 31,45</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>20,95%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24,5%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33,04%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>27,06%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>22,23%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
           <t>21,14%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17,43%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>15,44%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>23,05%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>33,67%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>26,56%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27,58%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>20,08%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>27,24%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>21,8%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>20,9%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,65; 22,45</t>
+          <t>14,67; 26,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,8; 24,97</t>
+          <t>17,07; 25,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 21,52</t>
+          <t>14,26; 21,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,81; 26,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,14; 37,84</t>
+          <t>11,87; 21,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,43; 30,3</t>
+          <t>19,71; 29,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,94; 31,86</t>
+          <t>29,18; 37,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 23,01</t>
+          <t>23,37; 30,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,66; 30,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,49; 23,55</t>
+          <t>21,51; 31,23</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>18,84; 26,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>23,93; 30,12</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>19,86; 25,22</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>18,28; 24,85</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>20,92%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>23,91%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 21,2</t>
+          <t>10,69; 22,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,13; 23,2</t>
+          <t>14,74; 22,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,13; 21,28</t>
+          <t>13,24; 21,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 18,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 24,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,53; 31,89</t>
+          <t>9,48; 18,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,84; 25,47</t>
+          <t>16,88; 26,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 29,2</t>
+          <t>24,43; 33,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,32; 21,41</t>
+          <t>18,83; 25,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,8; 26,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,11; 22,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,11; 22,97</t>
+          <t>16,78; 24,96</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>15,01; 22,01</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>21,31; 27,08</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>17,29; 22,21</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>13,99; 20,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>37,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,01%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 22,65</t>
+          <t>16,23; 26,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,11; 24,38</t>
+          <t>18,39; 29,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 22,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,29; 21,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,82; 26,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,4; 35,99</t>
+          <t>10,3; 18,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,23; 29,89</t>
+          <t>21,94; 30,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,2; 32,62</t>
+          <t>33,03; 43,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,9; 23,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,07; 29,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,83; 25,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,95; 26,18</t>
+          <t>18,95; 28,56</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,2; 26,78</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>26,36; 34,74</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>15,63; 21,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18,82%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,36%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24,57%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>22,19%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>23,82%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>19,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16,08; 22,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18,77; 23,7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16,69; 22,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12,8; 17,35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22,95; 27,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31,13; 35,98</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25,79; 30,45</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 27,37</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 24,24</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>25,73; 29,13</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 25,53</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>18,21; 21,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva) (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>54605</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>116894</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>199897</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>84278</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>143720</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>224029</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>334150</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>185016</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>198325</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>340923</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>534048</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>269294</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34444; 83597</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>88286; 150575</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>153529; 274455</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>49364; 125566</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>109420; 179906</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>185255; 259377</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>286738; 381584</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>137387; 252656</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>155916; 240548</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>293451; 394226</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>467728; 614113</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>204171; 343695</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>182075</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>252841</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>284212</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>170833</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>245006</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>407507</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>411584</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>284448</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>427081</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>660348</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>695797</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>455281</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>136817; 249028</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>205962; 309309</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>231240; 344886</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>127078; 231247</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>197095; 293025</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>359900; 457492</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>352458; 466561</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>233066; 338321</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>364011; 510096</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>584085; 735115</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>621477; 789263</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>393684; 535177</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>109808</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>157725</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>182745</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>109782</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>164199</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>269623</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>258366</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>187672</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>274007</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>427348</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>441111</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>297454</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>76530; 157954</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>124633; 194454</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>144809; 232118</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>78742; 150337</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>129836; 207083</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>230058; 311609</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>219016; 299316</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>150494; 223881</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>222833; 326853</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>380877; 484065</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>390214; 501317</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>241676; 353542</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>301724</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>198932</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>154780</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>360556</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>288228</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>229954</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>662280</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>487160</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>384734</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>236557; 392760</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>158197; 250650</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>113118; 199109</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>307894; 421140</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>252085; 332075</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>186581; 281172</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>577983; 766086</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>427881; 563957</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>325613; 456547</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>539.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>518.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>828.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>714.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>648212</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>726393</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>666855</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>913480</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1189387</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1004101</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>887090</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1561693</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1915779</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1670955</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1406764</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>554011; 764153</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>646383; 815958</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>574716; 768924</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>441204; 598208</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>824940; 1003693</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1113655; 1286917</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>920775; 1086927</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>793710; 988312</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1431632; 1706125</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1805978; 2045205</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1536277; 1790586</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1285456; 1548633</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
